--- a/Excel/UTowerConfig.xlsx
+++ b/Excel/UTowerConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ETFork\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F147D8-7E7D-47BA-8A2B-523BE9161937}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383A7666-4ACA-42EC-A7A4-19EACBC8B51A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,14 +82,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>警戒半径</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AlertRadius</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>float</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -182,6 +174,14 @@
   </si>
   <si>
     <t>Tower_One_Demo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>出征战士</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleId</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -201,6 +201,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -208,6 +209,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -582,7 +584,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -595,15 +597,18 @@
     <col min="7" max="7" width="7.875" style="2" customWidth="1"/>
     <col min="8" max="8" width="15.125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.875" style="2" customWidth="1"/>
-    <col min="10" max="11" width="9.5" style="2" customWidth="1"/>
-    <col min="12" max="15" width="6.875" style="2" customWidth="1"/>
-    <col min="16" max="17" width="6.75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="2" customWidth="1"/>
+    <col min="11" max="12" width="6.875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="6.75" style="2" customWidth="1"/>
+    <col min="17" max="17" width="8.375" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -634,28 +639,28 @@
         <v>15</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="P3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -679,7 +684,7 @@
         <v>16</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>22</v>
@@ -688,19 +693,19 @@
         <v>24</v>
       </c>
       <c r="M4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="P4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -724,28 +729,28 @@
         <v>11</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -753,46 +758,46 @@
         <v>1001</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="5">
-        <v>5.5</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>34</v>
+      <c r="J6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="6">
+        <v>1</v>
       </c>
       <c r="L6" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M6" s="6">
-        <v>10</v>
-      </c>
-      <c r="N6" s="6">
         <v>100</v>
       </c>
-      <c r="O6" s="7">
-        <v>10</v>
+      <c r="N6" s="7">
+        <v>100</v>
+      </c>
+      <c r="O6" s="1">
+        <v>200</v>
       </c>
       <c r="P6" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="Q6" s="1">
-        <v>9999</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -800,46 +805,46 @@
         <v>1002</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="5">
-        <v>5.5</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>34</v>
+      <c r="J7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="6">
+        <v>1</v>
       </c>
       <c r="L7" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M7" s="6">
-        <v>10</v>
-      </c>
-      <c r="N7" s="6">
         <v>100</v>
       </c>
-      <c r="O7" s="7">
-        <v>10</v>
+      <c r="N7" s="7">
+        <v>100</v>
+      </c>
+      <c r="O7" s="1">
+        <v>200</v>
       </c>
       <c r="P7" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="Q7" s="1">
-        <v>9999</v>
+        <v>1002</v>
       </c>
     </row>
   </sheetData>
